--- a/price_data.xlsx
+++ b/price_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,28 @@
         <v>0.9399999999999999</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>04/04/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
